--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/27Sept2013_Xining_Physioflow_X27X32/X27 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/27Sept2013_Xining_Physioflow_X27X32/X27 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -90,27 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>45w</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>90w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -156,7 +135,22 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
     <t>ABG @ rest</t>
+  </si>
+  <si>
+    <t>45w</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>90w</t>
+  </si>
+  <si>
+    <t>120w</t>
   </si>
   <si>
     <t>135w, submax</t>
@@ -167,29 +161,378 @@
   <si>
     <t>max</t>
   </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -197,20 +540,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -218,6 +850,1446 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$105</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.00694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.00729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="h:mm:ss">
+                  <c:v>0.00740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="h:mm:ss">
+                  <c:v>0.00752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="h:mm:ss">
+                  <c:v>0.00763888888888889</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="h:mm:ss">
+                  <c:v>0.00775462962962963</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="h:mm:ss">
+                  <c:v>0.00787037037037037</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="h:mm:ss">
+                  <c:v>0.00798611111111111</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="h:mm:ss">
+                  <c:v>0.00810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="h:mm:ss">
+                  <c:v>0.00821759259259259</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="h:mm:ss">
+                  <c:v>0.00833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="h:mm:ss">
+                  <c:v>0.00844907407407407</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="h:mm:ss">
+                  <c:v>0.00856481481481482</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="h:mm:ss">
+                  <c:v>0.00868055555555556</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="h:mm:ss">
+                  <c:v>0.0087962962962963</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="h:mm:ss">
+                  <c:v>0.00891203703703704</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="h:mm:ss">
+                  <c:v>0.00902777777777778</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="h:mm:ss">
+                  <c:v>0.00914351851851852</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="h:mm:ss">
+                  <c:v>0.00925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="h:mm:ss">
+                  <c:v>0.009375</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="h:mm:ss">
+                  <c:v>0.00949074074074074</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="h:mm:ss">
+                  <c:v>0.00960648148148148</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="h:mm:ss">
+                  <c:v>0.00972222222222222</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="h:mm:ss">
+                  <c:v>0.00983796296296296</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="h:mm:ss">
+                  <c:v>0.0099537037037037</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="h:mm:ss">
+                  <c:v>0.0100694444444444</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="h:mm:ss">
+                  <c:v>0.0101851851851852</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="h:mm:ss">
+                  <c:v>0.0103009259259259</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="h:mm:ss">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="h:mm:ss">
+                  <c:v>0.0105324074074074</c:v>
+                </c:pt>
+                <c:pt idx="91" c:formatCode="h:mm:ss">
+                  <c:v>0.0106481481481481</c:v>
+                </c:pt>
+                <c:pt idx="92" c:formatCode="h:mm:ss">
+                  <c:v>0.0107638888888889</c:v>
+                </c:pt>
+                <c:pt idx="93" c:formatCode="h:mm:ss">
+                  <c:v>0.0108796296296296</c:v>
+                </c:pt>
+                <c:pt idx="94" c:formatCode="h:mm:ss">
+                  <c:v>0.0109953703703704</c:v>
+                </c:pt>
+                <c:pt idx="95" c:formatCode="h:mm:ss">
+                  <c:v>0.0111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="96" c:formatCode="h:mm:ss">
+                  <c:v>0.0112268518518519</c:v>
+                </c:pt>
+                <c:pt idx="97" c:formatCode="h:mm:ss">
+                  <c:v>0.0113425925925926</c:v>
+                </c:pt>
+                <c:pt idx="98" c:formatCode="h:mm:ss">
+                  <c:v>0.0114583333333333</c:v>
+                </c:pt>
+                <c:pt idx="99" c:formatCode="h:mm:ss">
+                  <c:v>0.0115740740740741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.82</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.03</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.86</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.66</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.82</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.42</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.93</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.45</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.82</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.46</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.48</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.77</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.88</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.33</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.99</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.43</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.89</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.62</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.98</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.98</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10.49</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11.69</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11.73</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.55</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.71</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.88</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.73</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10.66</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.82</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.12</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10.37</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.66</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>11.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="59213342"/>
+        <c:axId val="418540735"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="59213342"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418540735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418540735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59213342"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474980</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2692400" y="16598900"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,21 +2573,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M82" workbookViewId="0">
-      <selection activeCell="U101" sqref="U101:AI101"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="W101" sqref="W101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -537,7 +2609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -596,57 +2668,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.85487268518518522</v>
+        <v>0.854872685185185</v>
       </c>
       <c r="C6">
         <v>96</v>
@@ -694,12 +2766,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.85498842592592583</v>
+        <v>0.854988425925926</v>
       </c>
       <c r="C7">
         <v>97</v>
@@ -747,12 +2819,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.85510416666666667</v>
+        <v>0.855104166666667</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -791,7 +2863,7 @@
         <v>1416</v>
       </c>
       <c r="O8">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="P8">
         <v>59</v>
@@ -800,12 +2872,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.85521990740740739</v>
+        <v>0.855219907407407</v>
       </c>
       <c r="C9">
         <v>94</v>
@@ -853,12 +2925,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.85533564814814822</v>
+        <v>0.855335648148148</v>
       </c>
       <c r="C10">
         <v>97</v>
@@ -870,7 +2942,7 @@
         <v>7.08</v>
       </c>
       <c r="F10">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="G10">
         <v>77</v>
@@ -906,12 +2978,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.85545138888888894</v>
+        <v>0.855451388888889</v>
       </c>
       <c r="C11">
         <v>99</v>
@@ -923,7 +2995,7 @@
         <v>7.08</v>
       </c>
       <c r="F11">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="G11">
         <v>76</v>
@@ -959,15 +3031,15 @@
         <v>38</v>
       </c>
       <c r="S11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.85556712962962955</v>
+        <v>0.85556712962963</v>
       </c>
       <c r="C12">
         <v>98</v>
@@ -1015,12 +3087,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.85568287037037039</v>
+        <v>0.85568287037037</v>
       </c>
       <c r="C13">
         <v>95</v>
@@ -1068,12 +3140,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.85579861111111111</v>
+        <v>0.855798611111111</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -1121,11 +3193,11 @@
         <v>38</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U14">
         <f>AVERAGE(C6:C14)</f>
-        <v>97.333333333333329</v>
+        <v>97.3333333333333</v>
       </c>
       <c r="V14">
         <f t="shared" ref="V14:AI14" si="0">AVERAGE(D6:D14)</f>
@@ -1133,11 +3205,11 @@
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
-        <v>6.8933333333333326</v>
+        <v>6.89333333333333</v>
       </c>
       <c r="X14">
         <f t="shared" si="0"/>
-        <v>4.2388888888888898</v>
+        <v>4.23888888888889</v>
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
@@ -1145,11 +3217,11 @@
       </c>
       <c r="Z14">
         <f t="shared" si="0"/>
-        <v>444.11111111111109</v>
+        <v>444.111111111111</v>
       </c>
       <c r="AA14">
         <f t="shared" si="0"/>
-        <v>223.77777777777777</v>
+        <v>223.777777777778</v>
       </c>
       <c r="AB14">
         <f t="shared" si="0"/>
@@ -1157,39 +3229,39 @@
       </c>
       <c r="AC14">
         <f t="shared" si="0"/>
-        <v>68.777777777777771</v>
+        <v>68.7777777777778</v>
       </c>
       <c r="AD14">
         <f t="shared" si="0"/>
-        <v>91.555555555555557</v>
+        <v>91.5555555555556</v>
       </c>
       <c r="AE14">
         <f t="shared" si="0"/>
-        <v>884.66666666666663</v>
+        <v>884.666666666667</v>
       </c>
       <c r="AF14">
         <f t="shared" si="0"/>
-        <v>1438.6666666666667</v>
+        <v>1438.66666666667</v>
       </c>
       <c r="AG14">
         <f t="shared" si="0"/>
-        <v>4.4544444444444444</v>
+        <v>4.45444444444444</v>
       </c>
       <c r="AH14">
         <f t="shared" si="0"/>
-        <v>59.333333333333336</v>
+        <v>59.3333333333333</v>
       </c>
       <c r="AI14">
         <f t="shared" si="0"/>
-        <v>36.777777777777779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+        <v>36.7777777777778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.85591435185185183</v>
+        <v>0.855914351851852</v>
       </c>
       <c r="C15">
         <v>101</v>
@@ -1237,12 +3309,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.85603009259259266</v>
+        <v>0.856030092592593</v>
       </c>
       <c r="C16">
         <v>90</v>
@@ -1281,7 +3353,7 @@
         <v>1527</v>
       </c>
       <c r="O16">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="P16">
         <v>75</v>
@@ -1290,12 +3362,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.85614583333333327</v>
+        <v>0.856145833333333</v>
       </c>
       <c r="C17">
         <v>95</v>
@@ -1334,7 +3406,7 @@
         <v>1353</v>
       </c>
       <c r="O17">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="P17">
         <v>82</v>
@@ -1343,12 +3415,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.85626157407407411</v>
+        <v>0.856261574074074</v>
       </c>
       <c r="C18">
         <v>92</v>
@@ -1396,12 +3468,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.85637731481481483</v>
+        <v>0.856377314814815</v>
       </c>
       <c r="C19">
         <v>88</v>
@@ -1440,7 +3512,7 @@
         <v>1663</v>
       </c>
       <c r="O19">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="P19">
         <v>67</v>
@@ -1449,12 +3521,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.85649305555555555</v>
+        <v>0.856493055555556</v>
       </c>
       <c r="C20">
         <v>94</v>
@@ -1502,12 +3574,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.85660879629629638</v>
+        <v>0.856608796296296</v>
       </c>
       <c r="C21">
         <v>104</v>
@@ -1555,12 +3627,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.85672453703703699</v>
+        <v>0.856724537037037</v>
       </c>
       <c r="C22">
         <v>104</v>
@@ -1572,7 +3644,7 @@
         <v>7.76</v>
       </c>
       <c r="F22">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="G22">
         <v>77</v>
@@ -1608,12 +3680,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.85684027777777771</v>
+        <v>0.856840277777778</v>
       </c>
       <c r="C23">
         <v>106</v>
@@ -1661,12 +3733,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.85695601851851855</v>
+        <v>0.856956018518519</v>
       </c>
       <c r="C24">
         <v>116</v>
@@ -1678,7 +3750,7 @@
         <v>7.63</v>
       </c>
       <c r="F24">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="G24">
         <v>73</v>
@@ -1714,15 +3786,15 @@
         <v>47</v>
       </c>
       <c r="S24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.85707175925925927</v>
+        <v>0.857071759259259</v>
       </c>
       <c r="C25">
         <v>128</v>
@@ -1770,12 +3842,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.8571875000000001</v>
+        <v>0.8571875</v>
       </c>
       <c r="C26">
         <v>132</v>
@@ -1823,12 +3895,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.85730324074074071</v>
+        <v>0.857303240740741</v>
       </c>
       <c r="C27">
         <v>131</v>
@@ -1837,7 +3909,7 @@
         <v>69</v>
       </c>
       <c r="E27">
-        <v>9.1199999999999992</v>
+        <v>9.12</v>
       </c>
       <c r="F27">
         <v>5.61</v>
@@ -1876,12 +3948,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.85741898148148143</v>
+        <v>0.857418981481481</v>
       </c>
       <c r="C28">
         <v>128</v>
@@ -1929,12 +4001,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.85753472222222227</v>
+        <v>0.857534722222222</v>
       </c>
       <c r="C29">
         <v>128</v>
@@ -1982,12 +4054,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.85765046296296299</v>
+        <v>0.857650462962963</v>
       </c>
       <c r="C30">
         <v>137</v>
@@ -1996,7 +4068,7 @@
         <v>71</v>
       </c>
       <c r="E30">
-        <v>9.8699999999999992</v>
+        <v>9.87</v>
       </c>
       <c r="F30">
         <v>6.07</v>
@@ -2035,12 +4107,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.8577662037037036</v>
+        <v>0.857766203703704</v>
       </c>
       <c r="C31">
         <v>134</v>
@@ -2088,15 +4160,15 @@
         <v>51</v>
       </c>
       <c r="S31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.85788194444444443</v>
+        <v>0.857881944444444</v>
       </c>
       <c r="C32">
         <v>138</v>
@@ -2144,12 +4216,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.85799768518518515</v>
+        <v>0.857997685185185</v>
       </c>
       <c r="C33">
         <v>137</v>
@@ -2197,12 +4269,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.85811342592592599</v>
+        <v>0.858113425925926</v>
       </c>
       <c r="C34">
         <v>127</v>
@@ -2250,12 +4322,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.85822916666666671</v>
+        <v>0.858229166666667</v>
       </c>
       <c r="C35">
         <v>130</v>
@@ -2303,12 +4375,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.85834490740740732</v>
+        <v>0.858344907407407</v>
       </c>
       <c r="C36">
         <v>123</v>
@@ -2356,12 +4428,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.85846064814814815</v>
+        <v>0.858460648148148</v>
       </c>
       <c r="C37">
         <v>119</v>
@@ -2409,12 +4481,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.85857638888888888</v>
+        <v>0.858576388888889</v>
       </c>
       <c r="C38">
         <v>112</v>
@@ -2462,12 +4534,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.8586921296296296</v>
+        <v>0.85869212962963</v>
       </c>
       <c r="C39">
         <v>119</v>
@@ -2515,12 +4587,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.85880787037037043</v>
+        <v>0.85880787037037</v>
       </c>
       <c r="C40">
         <v>121</v>
@@ -2568,12 +4640,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.85892361111111104</v>
+        <v>0.858923611111111</v>
       </c>
       <c r="C41">
         <v>116</v>
@@ -2582,10 +4654,10 @@
         <v>69</v>
       </c>
       <c r="E41">
-        <v>8.0299999999999994</v>
+        <v>8.03</v>
       </c>
       <c r="F41">
-        <v>4.9400000000000004</v>
+        <v>4.94</v>
       </c>
       <c r="G41">
         <v>74</v>
@@ -2621,12 +4693,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.85903935185185187</v>
+        <v>0.859039351851852</v>
       </c>
       <c r="C42">
         <v>125</v>
@@ -2674,12 +4746,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.8591550925925926</v>
+        <v>0.859155092592593</v>
       </c>
       <c r="C43">
         <v>128</v>
@@ -2727,15 +4799,15 @@
         <v>45</v>
       </c>
       <c r="S43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.85927083333333332</v>
+        <v>0.859270833333333</v>
       </c>
       <c r="C44">
         <v>131</v>
@@ -2783,12 +4855,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.85938657407407415</v>
+        <v>0.859386574074074</v>
       </c>
       <c r="C45">
         <v>131</v>
@@ -2836,12 +4908,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.85950231481481476</v>
+        <v>0.859502314814815</v>
       </c>
       <c r="C46">
         <v>137</v>
@@ -2889,12 +4961,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.85961805555555559</v>
+        <v>0.859618055555556</v>
       </c>
       <c r="C47">
         <v>139</v>
@@ -2942,12 +5014,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.85973379629629632</v>
+        <v>0.859733796296296</v>
       </c>
       <c r="C48">
         <v>141</v>
@@ -2995,12 +5067,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.85984953703703704</v>
+        <v>0.859849537037037</v>
       </c>
       <c r="C49">
         <v>131</v>
@@ -3048,12 +5120,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.85996527777777787</v>
+        <v>0.859965277777778</v>
       </c>
       <c r="C50">
         <v>137</v>
@@ -3101,12 +5173,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.86008101851851848</v>
+        <v>0.860081018518518</v>
       </c>
       <c r="C51">
         <v>140</v>
@@ -3154,12 +5226,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.8601967592592592</v>
+        <v>0.860196759259259</v>
       </c>
       <c r="C52">
         <v>142</v>
@@ -3207,12 +5279,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.86031250000000004</v>
+        <v>0.8603125</v>
       </c>
       <c r="C53">
         <v>138</v>
@@ -3260,12 +5332,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.86042824074074076</v>
+        <v>0.860428240740741</v>
       </c>
       <c r="C54">
         <v>136</v>
@@ -3274,7 +5346,7 @@
         <v>69</v>
       </c>
       <c r="E54">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
       <c r="F54">
         <v>5.81</v>
@@ -3313,12 +5385,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.86054398148148137</v>
+        <v>0.860543981481481</v>
       </c>
       <c r="C55">
         <v>142</v>
@@ -3366,12 +5438,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.8606597222222222</v>
+        <v>0.860659722222222</v>
       </c>
       <c r="C56">
         <v>144</v>
@@ -3419,12 +5491,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.86077546296296292</v>
+        <v>0.860775462962963</v>
       </c>
       <c r="C57">
         <v>144</v>
@@ -3472,12 +5544,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.86089120370370376</v>
+        <v>0.860891203703704</v>
       </c>
       <c r="C58">
         <v>145</v>
@@ -3525,12 +5597,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="A59" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B59" s="1">
-        <v>0.86100694444444448</v>
+        <v>0.861006944444444</v>
       </c>
       <c r="C59">
         <v>144</v>
@@ -3539,7 +5611,7 @@
         <v>70</v>
       </c>
       <c r="E59">
-        <v>10.220000000000001</v>
+        <v>10.22</v>
       </c>
       <c r="F59">
         <v>6.28</v>
@@ -3578,15 +5650,15 @@
         <v>56</v>
       </c>
       <c r="S59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>0.86112268518518509</v>
+        <v>0.861122685185185</v>
       </c>
       <c r="C60">
         <v>142</v>
@@ -3595,7 +5667,7 @@
         <v>71</v>
       </c>
       <c r="E60">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="F60">
         <v>6.27</v>
@@ -3634,12 +5706,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B61" s="1">
-        <v>0.86123842592592592</v>
+        <v>0.861238425925926</v>
       </c>
       <c r="C61">
         <v>154</v>
@@ -3687,12 +5759,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B62" s="1">
-        <v>0.86135416666666664</v>
+        <v>0.861354166666667</v>
       </c>
       <c r="C62">
         <v>133</v>
@@ -3740,12 +5812,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B63" s="1">
-        <v>0.86146990740740748</v>
+        <v>0.861469907407407</v>
       </c>
       <c r="C63">
         <v>148</v>
@@ -3793,12 +5865,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B64" s="1">
-        <v>0.8615856481481482</v>
+        <v>0.861585648148148</v>
       </c>
       <c r="C64">
         <v>150</v>
@@ -3846,12 +5918,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="B65" s="1">
-        <v>0.86170138888888881</v>
+        <v>0.861701388888889</v>
       </c>
       <c r="C65">
         <v>146</v>
@@ -3899,15 +5971,15 @@
         <v>56</v>
       </c>
       <c r="S65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B66" s="1">
-        <v>0.86181712962962964</v>
+        <v>0.86181712962963</v>
       </c>
       <c r="C66">
         <v>139</v>
@@ -3955,12 +6027,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B67" s="1">
-        <v>0.86193287037037036</v>
+        <v>0.86193287037037</v>
       </c>
       <c r="C67">
         <v>145</v>
@@ -4008,12 +6080,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
-        <v>7.2916666666666659E-3</v>
+        <v>0.00729166666666667</v>
       </c>
       <c r="B68" s="1">
-        <v>0.86204861111111108</v>
+        <v>0.862048611111111</v>
       </c>
       <c r="C68">
         <v>147</v>
@@ -4061,12 +6133,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
-        <v>7.4074074074074068E-3</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="B69" s="1">
-        <v>0.86216435185185192</v>
+        <v>0.862164351851852</v>
       </c>
       <c r="C69">
         <v>135</v>
@@ -4114,12 +6186,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
-        <v>7.5231481481481477E-3</v>
+        <v>0.00752314814814815</v>
       </c>
       <c r="B70" s="1">
-        <v>0.86228009259259253</v>
+        <v>0.862280092592593</v>
       </c>
       <c r="C70">
         <v>136</v>
@@ -4167,12 +6239,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
-        <v>7.6388888888888886E-3</v>
+        <v>0.00763888888888889</v>
       </c>
       <c r="B71" s="1">
-        <v>0.86239583333333336</v>
+        <v>0.862395833333333</v>
       </c>
       <c r="C71">
         <v>131</v>
@@ -4220,12 +6292,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
-        <v>7.7546296296296287E-3</v>
+        <v>0.00775462962962963</v>
       </c>
       <c r="B72" s="1">
-        <v>0.86251157407407408</v>
+        <v>0.862511574074074</v>
       </c>
       <c r="C72">
         <v>135</v>
@@ -4234,7 +6306,7 @@
         <v>74</v>
       </c>
       <c r="E72">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="F72">
         <v>6.27</v>
@@ -4273,12 +6345,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
-        <v>7.8703703703703713E-3</v>
+        <v>0.00787037037037037</v>
       </c>
       <c r="B73" s="1">
-        <v>0.86262731481481481</v>
+        <v>0.862627314814815</v>
       </c>
       <c r="C73">
         <v>141</v>
@@ -4326,12 +6398,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
-        <v>7.9861111111111122E-3</v>
+        <v>0.00798611111111111</v>
       </c>
       <c r="B74" s="1">
-        <v>0.86274305555555564</v>
+        <v>0.862743055555556</v>
       </c>
       <c r="C74">
         <v>129</v>
@@ -4379,12 +6451,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
-        <v>8.1018518518518514E-3</v>
+        <v>0.00810185185185185</v>
       </c>
       <c r="B75" s="1">
-        <v>0.86285879629629625</v>
+        <v>0.862858796296296</v>
       </c>
       <c r="C75">
         <v>131</v>
@@ -4393,7 +6465,7 @@
         <v>72</v>
       </c>
       <c r="E75">
-        <v>9.6199999999999992</v>
+        <v>9.62</v>
       </c>
       <c r="F75">
         <v>5.91</v>
@@ -4432,12 +6504,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
-        <v>8.217592592592594E-3</v>
+        <v>0.00821759259259259</v>
       </c>
       <c r="B76" s="1">
-        <v>0.86297453703703697</v>
+        <v>0.862974537037037</v>
       </c>
       <c r="C76">
         <v>135</v>
@@ -4485,12 +6557,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
-        <v>8.3333333333333332E-3</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="B77" s="1">
-        <v>0.8630902777777778</v>
+        <v>0.863090277777778</v>
       </c>
       <c r="C77">
         <v>134</v>
@@ -4538,12 +6610,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="A78" s="1">
-        <v>8.4490740740740741E-3</v>
+        <v>0.00844907407407407</v>
       </c>
       <c r="B78" s="1">
-        <v>0.86320601851851853</v>
+        <v>0.863206018518519</v>
       </c>
       <c r="C78">
         <v>143</v>
@@ -4591,12 +6663,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19">
       <c r="A79" s="1">
-        <v>8.564814814814815E-3</v>
+        <v>0.00856481481481482</v>
       </c>
       <c r="B79" s="1">
-        <v>0.86332175925925936</v>
+        <v>0.863321759259259</v>
       </c>
       <c r="C79">
         <v>136</v>
@@ -4644,15 +6716,15 @@
         <v>85</v>
       </c>
       <c r="S79" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
-        <v>8.6805555555555559E-3</v>
+        <v>0.00868055555555556</v>
       </c>
       <c r="B80" s="1">
-        <v>0.86343749999999997</v>
+        <v>0.8634375</v>
       </c>
       <c r="C80">
         <v>131</v>
@@ -4700,12 +6772,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
-        <v>8.7962962962962968E-3</v>
+        <v>0.0087962962962963</v>
       </c>
       <c r="B81" s="1">
-        <v>0.86355324074074069</v>
+        <v>0.863553240740741</v>
       </c>
       <c r="C81">
         <v>136</v>
@@ -4753,12 +6825,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
-        <v>8.9120370370370378E-3</v>
+        <v>0.00891203703703704</v>
       </c>
       <c r="B82" s="1">
-        <v>0.86366898148148152</v>
+        <v>0.863668981481482</v>
       </c>
       <c r="C82">
         <v>146</v>
@@ -4806,15 +6878,15 @@
         <v>103</v>
       </c>
       <c r="S82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
-        <v>9.0277777777777787E-3</v>
+        <v>0.00902777777777778</v>
       </c>
       <c r="B83" s="1">
-        <v>0.86378472222222225</v>
+        <v>0.863784722222222</v>
       </c>
       <c r="C83">
         <v>141</v>
@@ -4862,12 +6934,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17">
       <c r="A84" s="1">
-        <v>9.1435185185185178E-3</v>
+        <v>0.00914351851851852</v>
       </c>
       <c r="B84" s="1">
-        <v>0.86390046296296286</v>
+        <v>0.863900462962963</v>
       </c>
       <c r="C84">
         <v>147</v>
@@ -4915,12 +6987,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
-        <v>9.2592592592592605E-3</v>
+        <v>0.00925925925925926</v>
       </c>
       <c r="B85" s="1">
-        <v>0.86401620370370369</v>
+        <v>0.864016203703704</v>
       </c>
       <c r="C85">
         <v>126</v>
@@ -4968,12 +7040,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" s="1">
-        <v>9.3749999999999997E-3</v>
+        <v>0.009375</v>
       </c>
       <c r="B86" s="1">
-        <v>0.86413194444444441</v>
+        <v>0.864131944444444</v>
       </c>
       <c r="C86">
         <v>152</v>
@@ -5021,12 +7093,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" s="1">
-        <v>9.4907407407407406E-3</v>
+        <v>0.00949074074074074</v>
       </c>
       <c r="B87" s="1">
-        <v>0.86424768518518524</v>
+        <v>0.864247685185185</v>
       </c>
       <c r="C87">
         <v>139</v>
@@ -5074,12 +7146,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19">
       <c r="A88" s="1">
-        <v>9.6064814814814815E-3</v>
+        <v>0.00960648148148148</v>
       </c>
       <c r="B88" s="1">
-        <v>0.86436342592592597</v>
+        <v>0.864363425925926</v>
       </c>
       <c r="C88">
         <v>127</v>
@@ -5088,7 +7160,7 @@
         <v>74</v>
       </c>
       <c r="E88">
-        <v>9.5500000000000007</v>
+        <v>9.55</v>
       </c>
       <c r="F88">
         <v>5.87</v>
@@ -5127,15 +7199,15 @@
         <v>141</v>
       </c>
       <c r="S88" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="1">
-        <v>9.7222222222222224E-3</v>
+        <v>0.00972222222222222</v>
       </c>
       <c r="B89" s="1">
-        <v>0.86447916666666658</v>
+        <v>0.864479166666667</v>
       </c>
       <c r="C89">
         <v>137</v>
@@ -5144,7 +7216,7 @@
         <v>70</v>
       </c>
       <c r="E89">
-        <v>9.7100000000000009</v>
+        <v>9.71</v>
       </c>
       <c r="F89">
         <v>5.97</v>
@@ -5183,12 +7255,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17">
       <c r="A90" s="1">
-        <v>9.8379629629629633E-3</v>
+        <v>0.00983796296296296</v>
       </c>
       <c r="B90" s="1">
-        <v>0.86459490740740741</v>
+        <v>0.864594907407407</v>
       </c>
       <c r="C90">
         <v>139</v>
@@ -5197,7 +7269,7 @@
         <v>70</v>
       </c>
       <c r="E90">
-        <v>9.8800000000000008</v>
+        <v>9.88</v>
       </c>
       <c r="F90">
         <v>6.07</v>
@@ -5236,12 +7308,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17">
       <c r="A91" s="1">
-        <v>9.9537037037037042E-3</v>
+        <v>0.0099537037037037</v>
       </c>
       <c r="B91" s="1">
-        <v>0.86471064814814813</v>
+        <v>0.864710648148148</v>
       </c>
       <c r="C91">
         <v>138</v>
@@ -5250,7 +7322,7 @@
         <v>66</v>
       </c>
       <c r="E91">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="F91">
         <v>5.72</v>
@@ -5289,12 +7361,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35">
       <c r="A92" s="1">
-        <v>1.0069444444444445E-2</v>
+        <v>0.0100694444444444</v>
       </c>
       <c r="B92" s="1">
-        <v>0.86482638888888896</v>
+        <v>0.864826388888889</v>
       </c>
       <c r="C92">
         <v>135</v>
@@ -5342,7 +7414,7 @@
         <v>118</v>
       </c>
       <c r="S92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U92">
         <f>AVERAGE(C89:C92)</f>
@@ -5354,11 +7426,11 @@
       </c>
       <c r="W92">
         <f t="shared" si="1"/>
-        <v>9.6550000000000011</v>
+        <v>9.655</v>
       </c>
       <c r="X92">
         <f t="shared" si="1"/>
-        <v>5.9349999999999996</v>
+        <v>5.935</v>
       </c>
       <c r="Y92">
         <f t="shared" si="1"/>
@@ -5394,7 +7466,7 @@
       </c>
       <c r="AG92">
         <f t="shared" si="1"/>
-        <v>6.2424999999999997</v>
+        <v>6.2425</v>
       </c>
       <c r="AH92">
         <f t="shared" si="1"/>
@@ -5405,12 +7477,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17">
       <c r="A93" s="1">
-        <v>1.0185185185185184E-2</v>
+        <v>0.0101851851851852</v>
       </c>
       <c r="B93" s="1">
-        <v>0.86494212962962969</v>
+        <v>0.86494212962963</v>
       </c>
       <c r="C93">
         <v>145</v>
@@ -5458,12 +7530,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17">
       <c r="A94" s="1">
-        <v>1.0300925925925927E-2</v>
+        <v>0.0103009259259259</v>
       </c>
       <c r="B94" s="1">
-        <v>0.8650578703703703</v>
+        <v>0.86505787037037</v>
       </c>
       <c r="C94">
         <v>157</v>
@@ -5511,12 +7583,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35">
       <c r="A95" s="1">
-        <v>1.0416666666666666E-2</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="B95" s="1">
-        <v>0.86517361111111113</v>
+        <v>0.865173611111111</v>
       </c>
       <c r="C95">
         <v>140</v>
@@ -5528,7 +7600,7 @@
         <v>7.82</v>
       </c>
       <c r="F95">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="G95">
         <v>53</v>
@@ -5555,7 +7627,7 @@
         <v>1311</v>
       </c>
       <c r="O95">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="P95">
         <v>20</v>
@@ -5564,7 +7636,7 @@
         <v>103</v>
       </c>
       <c r="S95" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U95">
         <f>AVERAGE(C92:C95)</f>
@@ -5576,7 +7648,7 @@
       </c>
       <c r="W95">
         <f t="shared" ref="W95" si="3">AVERAGE(E92:E95)</f>
-        <v>9.6125000000000007</v>
+        <v>9.6125</v>
       </c>
       <c r="X95">
         <f t="shared" ref="X95" si="4">AVERAGE(F92:F95)</f>
@@ -5616,7 +7688,7 @@
       </c>
       <c r="AG95">
         <f t="shared" ref="AG95" si="13">AVERAGE(O92:O95)</f>
-        <v>6.2149999999999999</v>
+        <v>6.215</v>
       </c>
       <c r="AH95">
         <f t="shared" ref="AH95" si="14">AVERAGE(P92:P95)</f>
@@ -5627,12 +7699,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17">
       <c r="A96" s="1">
-        <v>1.0532407407407407E-2</v>
+        <v>0.0105324074074074</v>
       </c>
       <c r="B96" s="1">
-        <v>0.86528935185185185</v>
+        <v>0.865289351851852</v>
       </c>
       <c r="C96">
         <v>139</v>
@@ -5641,7 +7713,7 @@
         <v>58</v>
       </c>
       <c r="E96">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="F96">
         <v>4.99</v>
@@ -5680,12 +7752,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17">
       <c r="A97" s="1">
-        <v>1.064814814814815E-2</v>
+        <v>0.0106481481481481</v>
       </c>
       <c r="B97" s="1">
-        <v>0.86540509259259257</v>
+        <v>0.865405092592593</v>
       </c>
       <c r="C97">
         <v>146</v>
@@ -5733,12 +7805,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17">
       <c r="A98" s="1">
-        <v>1.0763888888888891E-2</v>
+        <v>0.0107638888888889</v>
       </c>
       <c r="B98" s="1">
-        <v>0.86552083333333341</v>
+        <v>0.865520833333333</v>
       </c>
       <c r="C98">
         <v>141</v>
@@ -5786,12 +7858,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17">
       <c r="A99" s="1">
-        <v>1.087962962962963E-2</v>
+        <v>0.0108796296296296</v>
       </c>
       <c r="B99" s="1">
-        <v>0.86563657407407402</v>
+        <v>0.865636574074074</v>
       </c>
       <c r="C99">
         <v>155</v>
@@ -5839,12 +7911,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17">
       <c r="A100" s="1">
-        <v>1.0995370370370371E-2</v>
+        <v>0.0109953703703704</v>
       </c>
       <c r="B100" s="1">
-        <v>0.86575231481481474</v>
+        <v>0.865752314814815</v>
       </c>
       <c r="C100">
         <v>138</v>
@@ -5892,12 +7964,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35">
       <c r="A101" s="1">
-        <v>1.1111111111111112E-2</v>
+        <v>0.0111111111111111</v>
       </c>
       <c r="B101" s="1">
-        <v>0.86586805555555557</v>
+        <v>0.865868055555556</v>
       </c>
       <c r="C101">
         <v>146</v>
@@ -5945,35 +8017,35 @@
         <v>109</v>
       </c>
       <c r="S101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U101" s="2">
         <f>AVERAGE(C95:C101)</f>
-        <v>143.57142857142858</v>
+        <v>143.571428571429</v>
       </c>
       <c r="V101" s="2">
         <f t="shared" ref="V101:AI101" si="16">AVERAGE(D95:D101)</f>
-        <v>61.285714285714285</v>
+        <v>61.2857142857143</v>
       </c>
       <c r="W101" s="2">
         <f t="shared" si="16"/>
-        <v>8.9042857142857148</v>
+        <v>8.90428571428571</v>
       </c>
       <c r="X101" s="2">
         <f t="shared" si="16"/>
-        <v>5.4742857142857142</v>
+        <v>5.47428571428571</v>
       </c>
       <c r="Y101" s="2">
         <f t="shared" si="16"/>
-        <v>58.714285714285715</v>
+        <v>58.7142857142857</v>
       </c>
       <c r="Z101" s="2">
         <f t="shared" si="16"/>
-        <v>157.28571428571428</v>
+        <v>157.285714285714</v>
       </c>
       <c r="AA101" s="2">
         <f t="shared" si="16"/>
-        <v>83.857142857142861</v>
+        <v>83.8571428571429</v>
       </c>
       <c r="AB101" s="2">
         <f t="shared" si="16"/>
@@ -5985,35 +8057,35 @@
       </c>
       <c r="AD101" s="2">
         <f t="shared" si="16"/>
-        <v>104.14285714285714</v>
+        <v>104.142857142857</v>
       </c>
       <c r="AE101" s="2">
         <f t="shared" si="16"/>
-        <v>724.28571428571433</v>
+        <v>724.285714285714</v>
       </c>
       <c r="AF101" s="2">
         <f t="shared" si="16"/>
-        <v>1177.8571428571429</v>
+        <v>1177.85714285714</v>
       </c>
       <c r="AG101" s="2">
         <f t="shared" si="16"/>
-        <v>5.7585714285714289</v>
+        <v>5.75857142857143</v>
       </c>
       <c r="AH101" s="2">
         <f t="shared" si="16"/>
-        <v>19.857142857142858</v>
+        <v>19.8571428571429</v>
       </c>
       <c r="AI101" s="2">
         <f t="shared" si="16"/>
-        <v>81.142857142857139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+        <v>81.1428571428571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="1">
-        <v>1.1226851851851854E-2</v>
+        <v>0.0112268518518519</v>
       </c>
       <c r="B102" s="1">
-        <v>0.86598379629629629</v>
+        <v>0.865983796296296</v>
       </c>
       <c r="C102">
         <v>144</v>
@@ -6061,12 +8133,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19">
       <c r="A103" s="1">
-        <v>1.1342592592592592E-2</v>
+        <v>0.0113425925925926</v>
       </c>
       <c r="B103" s="1">
-        <v>0.86609953703703713</v>
+        <v>0.866099537037037</v>
       </c>
       <c r="C103">
         <v>139</v>
@@ -6114,15 +8186,15 @@
         <v>62</v>
       </c>
       <c r="S103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="1">
-        <v>1.1458333333333334E-2</v>
+        <v>0.0114583333333333</v>
       </c>
       <c r="B104" s="1">
-        <v>0.86621527777777774</v>
+        <v>0.866215277777778</v>
       </c>
       <c r="C104">
         <v>137</v>
@@ -6170,12 +8242,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17">
       <c r="A105" s="1">
-        <v>1.1574074074074075E-2</v>
+        <v>0.0115740740740741</v>
       </c>
       <c r="B105" s="1">
-        <v>0.86633101851851846</v>
+        <v>0.866331018518518</v>
       </c>
       <c r="C105">
         <v>155</v>
@@ -6223,36 +8295,46 @@
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/27Sept2013_Xining_Physioflow_X27X32/X27 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/27Sept2013_Xining_Physioflow_X27X32/X27 at 2200.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\27Sept2013_Xining_Physioflow_X27X32\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED757A4-AE83-4994-A41E-91709EB915B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -171,14 +185,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,353 +194,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -540,322 +211,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -867,7 +252,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -893,6 +277,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -917,314 +302,311 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$105</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="100"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
-                  <c:v>0.000115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000231481481481481</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.000578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.000694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.000810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.000925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00127314814814815</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00138888888888889</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00150462962962963</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00162037037037037</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00173611111111111</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00185185185185185</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00196759259259259</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00219907407407407</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00231481481481482</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00243055555555556</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.0025462962962963</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00266203703703704</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00277777777777778</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00289351851851852</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00300925925925926</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.003125</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00324074074074074</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00335648148148148</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00358796296296296</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.0037037037037037</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.00381944444444444</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00393518518518519</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00405092592592593</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00428240740740741</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00439814814814815</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00451388888888889</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00474537037037037</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00486111111111111</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00497685185185185</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00509259259259259</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00532407407407407</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00543981481481481</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.0056712962962963</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.00578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00590277777777778</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00601851851851852</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.00613425925925926</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="h:mm:ss">
-                  <c:v>0.00625</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="h:mm:ss">
-                  <c:v>0.00636574074074074</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="h:mm:ss">
-                  <c:v>0.00648148148148148</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="h:mm:ss">
-                  <c:v>0.00659722222222222</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="h:mm:ss">
-                  <c:v>0.00671296296296296</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="h:mm:ss">
-                  <c:v>0.0068287037037037</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="h:mm:ss">
-                  <c:v>0.00694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="h:mm:ss">
-                  <c:v>0.00706018518518518</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="h:mm:ss">
-                  <c:v>0.00717592592592593</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="h:mm:ss">
-                  <c:v>0.00729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="h:mm:ss">
-                  <c:v>0.00740740740740741</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="h:mm:ss">
-                  <c:v>0.00752314814814815</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="h:mm:ss">
-                  <c:v>0.00763888888888889</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="h:mm:ss">
-                  <c:v>0.00775462962962963</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="h:mm:ss">
-                  <c:v>0.00787037037037037</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="h:mm:ss">
-                  <c:v>0.00798611111111111</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="h:mm:ss">
-                  <c:v>0.00810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="h:mm:ss">
-                  <c:v>0.00821759259259259</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="h:mm:ss">
-                  <c:v>0.00833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="h:mm:ss">
-                  <c:v>0.00844907407407407</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="h:mm:ss">
-                  <c:v>0.00856481481481482</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="h:mm:ss">
-                  <c:v>0.00868055555555556</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="h:mm:ss">
-                  <c:v>0.0087962962962963</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="h:mm:ss">
-                  <c:v>0.00891203703703704</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="h:mm:ss">
-                  <c:v>0.00902777777777778</c:v>
-                </c:pt>
-                <c:pt idx="78" c:formatCode="h:mm:ss">
-                  <c:v>0.00914351851851852</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="h:mm:ss">
-                  <c:v>0.00925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="80" c:formatCode="h:mm:ss">
-                  <c:v>0.009375</c:v>
-                </c:pt>
-                <c:pt idx="81" c:formatCode="h:mm:ss">
-                  <c:v>0.00949074074074074</c:v>
-                </c:pt>
-                <c:pt idx="82" c:formatCode="h:mm:ss">
-                  <c:v>0.00960648148148148</c:v>
-                </c:pt>
-                <c:pt idx="83" c:formatCode="h:mm:ss">
-                  <c:v>0.00972222222222222</c:v>
-                </c:pt>
-                <c:pt idx="84" c:formatCode="h:mm:ss">
-                  <c:v>0.00983796296296296</c:v>
-                </c:pt>
-                <c:pt idx="85" c:formatCode="h:mm:ss">
-                  <c:v>0.0099537037037037</c:v>
-                </c:pt>
-                <c:pt idx="86" c:formatCode="h:mm:ss">
-                  <c:v>0.0100694444444444</c:v>
-                </c:pt>
-                <c:pt idx="87" c:formatCode="h:mm:ss">
-                  <c:v>0.0101851851851852</c:v>
-                </c:pt>
-                <c:pt idx="88" c:formatCode="h:mm:ss">
-                  <c:v>0.0103009259259259</c:v>
-                </c:pt>
-                <c:pt idx="89" c:formatCode="h:mm:ss">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="90" c:formatCode="h:mm:ss">
-                  <c:v>0.0105324074074074</c:v>
-                </c:pt>
-                <c:pt idx="91" c:formatCode="h:mm:ss">
-                  <c:v>0.0106481481481481</c:v>
-                </c:pt>
-                <c:pt idx="92" c:formatCode="h:mm:ss">
-                  <c:v>0.0107638888888889</c:v>
-                </c:pt>
-                <c:pt idx="93" c:formatCode="h:mm:ss">
-                  <c:v>0.0108796296296296</c:v>
-                </c:pt>
-                <c:pt idx="94" c:formatCode="h:mm:ss">
-                  <c:v>0.0109953703703704</c:v>
-                </c:pt>
-                <c:pt idx="95" c:formatCode="h:mm:ss">
-                  <c:v>0.0111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="96" c:formatCode="h:mm:ss">
-                  <c:v>0.0112268518518519</c:v>
-                </c:pt>
-                <c:pt idx="97" c:formatCode="h:mm:ss">
-                  <c:v>0.0113425925925926</c:v>
-                </c:pt>
-                <c:pt idx="98" c:formatCode="h:mm:ss">
-                  <c:v>0.0114583333333333</c:v>
-                </c:pt>
-                <c:pt idx="99" c:formatCode="h:mm:ss">
-                  <c:v>0.0115740740740741</c:v>
+                <c:pt idx="0">
+                  <c:v>1.15740740740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31481481481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4722222222222202E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6296296296296298E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9444444444444404E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1018518518518505E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2592592592592596E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0416666666666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.27314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5046296296296301E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9675925925925898E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1990740740740699E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3148148148148199E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5462962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.66203703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8935185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3564814814814798E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5879629629629599E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.93518518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.05092592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2824074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7453703703703703E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9768518518518504E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4398148148148097E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.7870370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1342592592592603E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3657407407407404E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.4814814814814804E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7129629629629596E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8287037037036997E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0601851851851798E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1759259259259302E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2916666666666703E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.4074074074074103E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.5231481481481503E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.6388888888888904E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.7546296296296304E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.8703703703703696E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.9861111111111105E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.1018518518518497E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.2175925925925906E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.3333333333333297E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.4490740740740707E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.5648148148148202E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.6805555555555594E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.7962962962963003E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.9120370370370395E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.0277777777777804E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.1435185185185196E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.2592592592592605E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.3749999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.4907407407407406E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.6064814814814797E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.7222222222222206E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.8379629629629598E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.9537037037037007E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.00694444444444E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.01851851851852E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0300925925925899E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0416666666666701E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.05324074074074E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0648148148148099E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0763888888888899E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.08796296296296E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.09953703703704E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1111111111111099E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1226851851851899E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.13425925925926E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.14583333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.1574074074074099E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,7 +681,7 @@
                   <c:v>9.58</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.12</c:v>
+                  <c:v>9.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8.92</c:v>
@@ -1308,7 +690,7 @@
                   <c:v>9.24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.87</c:v>
+                  <c:v>9.8699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>9.27</c:v>
@@ -1341,7 +723,7 @@
                   <c:v>8.65</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.03</c:v>
+                  <c:v>8.0299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8.76</c:v>
@@ -1380,7 +762,7 @@
                   <c:v>9.93</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.45</c:v>
+                  <c:v>9.4499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>10.82</c:v>
@@ -1395,10 +777,10 @@
                   <c:v>10.46</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10.22</c:v>
+                  <c:v>10.220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10.2</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>11.48</c:v>
@@ -1434,7 +816,7 @@
                   <c:v>9.57</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.2</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>9.89</c:v>
@@ -1443,7 +825,7 @@
                   <c:v>8.35</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.62</c:v>
+                  <c:v>9.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>10.19</c:v>
@@ -1482,16 +864,16 @@
                   <c:v>9.85</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.55</c:v>
+                  <c:v>9.5500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.71</c:v>
+                  <c:v>9.7100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.88</c:v>
+                  <c:v>9.8800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.3</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>9.73</c:v>
@@ -1506,7 +888,7 @@
                   <c:v>7.82</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.12</c:v>
+                  <c:v>8.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>10.07</c:v>
@@ -1539,6 +921,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF37-4CC6-9DF4-A1F479A50814}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1548,7 +935,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="59213342"/>
         <c:axId val="418540735"/>
@@ -1560,6 +946,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1593,6 +980,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="418540735"/>
@@ -1651,6 +1039,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59213342"/>
@@ -1691,6 +1080,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2258,28 +1648,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>223520</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>175895</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>474980</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>427355</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2692400" y="16598900"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2573,21 +1969,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="W101" sqref="W101"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2713,9 +2109,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>0.000115740740740741</v>
+        <v>1.15740740740741E-4</v>
       </c>
       <c r="B6" s="1">
         <v>0.854872685185185</v>
@@ -2766,12 +2162,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.000231481481481481</v>
+        <v>2.31481481481481E-4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.854988425925926</v>
+        <v>0.85498842592592605</v>
       </c>
       <c r="C7">
         <v>97</v>
@@ -2819,9 +2215,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.000347222222222222</v>
+        <v>3.4722222222222202E-4</v>
       </c>
       <c r="B8" s="1">
         <v>0.855104166666667</v>
@@ -2863,7 +2259,7 @@
         <v>1416</v>
       </c>
       <c r="O8">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="P8">
         <v>59</v>
@@ -2872,12 +2268,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.000462962962962963</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.855219907407407</v>
+        <v>0.85521990740740705</v>
       </c>
       <c r="C9">
         <v>94</v>
@@ -2925,9 +2321,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.000578703703703704</v>
+        <v>5.78703703703704E-4</v>
       </c>
       <c r="B10" s="1">
         <v>0.855335648148148</v>
@@ -2942,7 +2338,7 @@
         <v>7.08</v>
       </c>
       <c r="F10">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G10">
         <v>77</v>
@@ -2978,12 +2374,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.000694444444444444</v>
+        <v>6.9444444444444404E-4</v>
       </c>
       <c r="B11" s="1">
-        <v>0.855451388888889</v>
+        <v>0.85545138888888905</v>
       </c>
       <c r="C11">
         <v>99</v>
@@ -2995,7 +2391,7 @@
         <v>7.08</v>
       </c>
       <c r="F11">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G11">
         <v>76</v>
@@ -3034,9 +2430,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.000810185185185185</v>
+        <v>8.1018518518518505E-4</v>
       </c>
       <c r="B12" s="1">
         <v>0.85556712962963</v>
@@ -3087,12 +2483,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.000925925925925926</v>
+        <v>9.2592592592592596E-4</v>
       </c>
       <c r="B13" s="1">
-        <v>0.85568287037037</v>
+        <v>0.85568287037037005</v>
       </c>
       <c r="C13">
         <v>95</v>
@@ -3142,7 +2538,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00104166666666667</v>
+        <v>1.0416666666666699E-3</v>
       </c>
       <c r="B14" s="1">
         <v>0.855798611111111</v>
@@ -3197,7 +2593,7 @@
       </c>
       <c r="U14">
         <f>AVERAGE(C6:C14)</f>
-        <v>97.3333333333333</v>
+        <v>97.333333333333329</v>
       </c>
       <c r="V14">
         <f t="shared" ref="V14:AI14" si="0">AVERAGE(D6:D14)</f>
@@ -3205,11 +2601,11 @@
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
-        <v>6.89333333333333</v>
+        <v>6.8933333333333326</v>
       </c>
       <c r="X14">
         <f t="shared" si="0"/>
-        <v>4.23888888888889</v>
+        <v>4.2388888888888898</v>
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
@@ -3217,11 +2613,11 @@
       </c>
       <c r="Z14">
         <f t="shared" si="0"/>
-        <v>444.111111111111</v>
+        <v>444.11111111111109</v>
       </c>
       <c r="AA14">
         <f t="shared" si="0"/>
-        <v>223.777777777778</v>
+        <v>223.77777777777777</v>
       </c>
       <c r="AB14">
         <f t="shared" si="0"/>
@@ -3229,39 +2625,39 @@
       </c>
       <c r="AC14">
         <f t="shared" si="0"/>
-        <v>68.7777777777778</v>
+        <v>68.777777777777771</v>
       </c>
       <c r="AD14">
         <f t="shared" si="0"/>
-        <v>91.5555555555556</v>
+        <v>91.555555555555557</v>
       </c>
       <c r="AE14">
         <f t="shared" si="0"/>
-        <v>884.666666666667</v>
+        <v>884.66666666666663</v>
       </c>
       <c r="AF14">
         <f t="shared" si="0"/>
-        <v>1438.66666666667</v>
+        <v>1438.6666666666667</v>
       </c>
       <c r="AG14">
         <f t="shared" si="0"/>
-        <v>4.45444444444444</v>
+        <v>4.4544444444444444</v>
       </c>
       <c r="AH14">
         <f t="shared" si="0"/>
-        <v>59.3333333333333</v>
+        <v>59.333333333333336</v>
       </c>
       <c r="AI14">
         <f t="shared" si="0"/>
-        <v>36.7777777777778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>36.777777777777779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00115740740740741</v>
+        <v>1.1574074074074099E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>0.855914351851852</v>
+        <v>0.85591435185185205</v>
       </c>
       <c r="C15">
         <v>101</v>
@@ -3309,12 +2705,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.00127314814814815</v>
+        <v>1.27314814814815E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.856030092592593</v>
+        <v>0.85603009259259299</v>
       </c>
       <c r="C16">
         <v>90</v>
@@ -3353,7 +2749,7 @@
         <v>1527</v>
       </c>
       <c r="O16">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="P16">
         <v>75</v>
@@ -3362,12 +2758,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
-        <v>0.00138888888888889</v>
+        <v>1.38888888888889E-3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.856145833333333</v>
+        <v>0.85614583333333305</v>
       </c>
       <c r="C17">
         <v>95</v>
@@ -3406,7 +2802,7 @@
         <v>1353</v>
       </c>
       <c r="O17">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="P17">
         <v>82</v>
@@ -3415,12 +2811,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
-        <v>0.00150462962962963</v>
+        <v>1.5046296296296301E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.856261574074074</v>
+        <v>0.85626157407407399</v>
       </c>
       <c r="C18">
         <v>92</v>
@@ -3468,12 +2864,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
-        <v>0.00162037037037037</v>
+        <v>1.6203703703703701E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.856377314814815</v>
+        <v>0.85637731481481505</v>
       </c>
       <c r="C19">
         <v>88</v>
@@ -3512,7 +2908,7 @@
         <v>1663</v>
       </c>
       <c r="O19">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="P19">
         <v>67</v>
@@ -3521,12 +2917,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
-        <v>0.00173611111111111</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.856493055555556</v>
+        <v>0.85649305555555599</v>
       </c>
       <c r="C20">
         <v>94</v>
@@ -3574,12 +2970,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
-        <v>0.00185185185185185</v>
+        <v>1.85185185185185E-3</v>
       </c>
       <c r="B21" s="1">
-        <v>0.856608796296296</v>
+        <v>0.85660879629629605</v>
       </c>
       <c r="C21">
         <v>104</v>
@@ -3627,12 +3023,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
-        <v>0.00196759259259259</v>
+        <v>1.9675925925925898E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.856724537037037</v>
+        <v>0.85672453703703699</v>
       </c>
       <c r="C22">
         <v>104</v>
@@ -3644,7 +3040,7 @@
         <v>7.76</v>
       </c>
       <c r="F22">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="G22">
         <v>77</v>
@@ -3680,12 +3076,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
-        <v>0.00208333333333333</v>
+        <v>2.0833333333333298E-3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.856840277777778</v>
+        <v>0.85684027777777805</v>
       </c>
       <c r="C23">
         <v>106</v>
@@ -3735,10 +3131,10 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1">
-        <v>0.00219907407407407</v>
+        <v>2.1990740740740699E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.856956018518519</v>
+        <v>0.85695601851851899</v>
       </c>
       <c r="C24">
         <v>116</v>
@@ -3750,7 +3146,7 @@
         <v>7.63</v>
       </c>
       <c r="F24">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="G24">
         <v>73</v>
@@ -3789,12 +3185,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
-        <v>0.00231481481481482</v>
+        <v>2.3148148148148199E-3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.857071759259259</v>
+        <v>0.85707175925925905</v>
       </c>
       <c r="C25">
         <v>128</v>
@@ -3842,12 +3238,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
-        <v>0.00243055555555556</v>
+        <v>2.4305555555555599E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.8571875</v>
+        <v>0.85718749999999999</v>
       </c>
       <c r="C26">
         <v>132</v>
@@ -3895,12 +3291,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
-        <v>0.0025462962962963</v>
+        <v>2.5462962962963E-3</v>
       </c>
       <c r="B27" s="1">
-        <v>0.857303240740741</v>
+        <v>0.85730324074074105</v>
       </c>
       <c r="C27">
         <v>131</v>
@@ -3909,7 +3305,7 @@
         <v>69</v>
       </c>
       <c r="E27">
-        <v>9.12</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F27">
         <v>5.61</v>
@@ -3948,12 +3344,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
-        <v>0.00266203703703704</v>
+        <v>2.66203703703704E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.857418981481481</v>
+        <v>0.85741898148148099</v>
       </c>
       <c r="C28">
         <v>128</v>
@@ -4001,12 +3397,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
-        <v>0.00277777777777778</v>
+        <v>2.7777777777777801E-3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.857534722222222</v>
+        <v>0.85753472222222205</v>
       </c>
       <c r="C29">
         <v>128</v>
@@ -4054,12 +3450,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
-        <v>0.00289351851851852</v>
+        <v>2.8935185185185201E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.857650462962963</v>
+        <v>0.85765046296296299</v>
       </c>
       <c r="C30">
         <v>137</v>
@@ -4068,7 +3464,7 @@
         <v>71</v>
       </c>
       <c r="E30">
-        <v>9.87</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="F30">
         <v>6.07</v>
@@ -4109,10 +3505,10 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1">
-        <v>0.00300925925925926</v>
+        <v>3.0092592592592601E-3</v>
       </c>
       <c r="B31" s="1">
-        <v>0.857766203703704</v>
+        <v>0.85776620370370404</v>
       </c>
       <c r="C31">
         <v>134</v>
@@ -4163,12 +3559,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.857881944444444</v>
+        <v>0.85788194444444399</v>
       </c>
       <c r="C32">
         <v>138</v>
@@ -4216,12 +3612,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
-        <v>0.00324074074074074</v>
+        <v>3.2407407407407402E-3</v>
       </c>
       <c r="B33" s="1">
-        <v>0.857997685185185</v>
+        <v>0.85799768518518504</v>
       </c>
       <c r="C33">
         <v>137</v>
@@ -4269,12 +3665,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
-        <v>0.00335648148148148</v>
+        <v>3.3564814814814798E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.858113425925926</v>
+        <v>0.85811342592592599</v>
       </c>
       <c r="C34">
         <v>127</v>
@@ -4322,12 +3718,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
-        <v>0.00347222222222222</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.858229166666667</v>
+        <v>0.85822916666666704</v>
       </c>
       <c r="C35">
         <v>130</v>
@@ -4375,12 +3771,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
-        <v>0.00358796296296296</v>
+        <v>3.5879629629629599E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.858344907407407</v>
+        <v>0.85834490740740699</v>
       </c>
       <c r="C36">
         <v>123</v>
@@ -4428,12 +3824,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
-        <v>0.0037037037037037</v>
+        <v>3.7037037037036999E-3</v>
       </c>
       <c r="B37" s="1">
-        <v>0.858460648148148</v>
+        <v>0.85846064814814804</v>
       </c>
       <c r="C37">
         <v>119</v>
@@ -4481,12 +3877,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
-        <v>0.00381944444444444</v>
+        <v>3.81944444444444E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.858576388888889</v>
+        <v>0.85857638888888899</v>
       </c>
       <c r="C38">
         <v>112</v>
@@ -4534,12 +3930,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
-        <v>0.00393518518518519</v>
+        <v>3.93518518518519E-3</v>
       </c>
       <c r="B39" s="1">
-        <v>0.85869212962963</v>
+        <v>0.85869212962963004</v>
       </c>
       <c r="C39">
         <v>119</v>
@@ -4587,12 +3983,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
-        <v>0.00405092592592593</v>
+        <v>4.05092592592593E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.85880787037037</v>
+        <v>0.85880787037036999</v>
       </c>
       <c r="C40">
         <v>121</v>
@@ -4640,12 +4036,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
-        <v>0.00416666666666667</v>
+        <v>4.1666666666666701E-3</v>
       </c>
       <c r="B41" s="1">
-        <v>0.858923611111111</v>
+        <v>0.85892361111111104</v>
       </c>
       <c r="C41">
         <v>116</v>
@@ -4654,10 +4050,10 @@
         <v>69</v>
       </c>
       <c r="E41">
-        <v>8.03</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="F41">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="G41">
         <v>74</v>
@@ -4693,12 +4089,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
-        <v>0.00428240740740741</v>
+        <v>4.2824074074074101E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.859039351851852</v>
+        <v>0.85903935185185198</v>
       </c>
       <c r="C42">
         <v>125</v>
@@ -4748,10 +4144,10 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="1">
-        <v>0.00439814814814815</v>
+        <v>4.3981481481481502E-3</v>
       </c>
       <c r="B43" s="1">
-        <v>0.859155092592593</v>
+        <v>0.85915509259259304</v>
       </c>
       <c r="C43">
         <v>128</v>
@@ -4802,12 +4198,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
-        <v>0.00451388888888889</v>
+        <v>4.5138888888888902E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.859270833333333</v>
+        <v>0.85927083333333298</v>
       </c>
       <c r="C44">
         <v>131</v>
@@ -4855,12 +4251,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
-        <v>0.00462962962962963</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="B45" s="1">
-        <v>0.859386574074074</v>
+        <v>0.85938657407407404</v>
       </c>
       <c r="C45">
         <v>131</v>
@@ -4908,12 +4304,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
-        <v>0.00474537037037037</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.859502314814815</v>
+        <v>0.85950231481481498</v>
       </c>
       <c r="C46">
         <v>137</v>
@@ -4961,12 +4357,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
-        <v>0.00486111111111111</v>
+        <v>4.8611111111111103E-3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.859618055555556</v>
+        <v>0.85961805555555604</v>
       </c>
       <c r="C47">
         <v>139</v>
@@ -5014,12 +4410,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
-        <v>0.00497685185185185</v>
+        <v>4.9768518518518504E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.859733796296296</v>
+        <v>0.85973379629629598</v>
       </c>
       <c r="C48">
         <v>141</v>
@@ -5067,12 +4463,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
-        <v>0.00509259259259259</v>
+        <v>5.0925925925925904E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>0.859849537037037</v>
+        <v>0.85984953703703704</v>
       </c>
       <c r="C49">
         <v>131</v>
@@ -5120,12 +4516,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
-        <v>0.00520833333333333</v>
+        <v>5.2083333333333296E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.859965277777778</v>
+        <v>0.85996527777777798</v>
       </c>
       <c r="C50">
         <v>137</v>
@@ -5173,12 +4569,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
-        <v>0.00532407407407407</v>
+        <v>5.3240740740740696E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>0.860081018518518</v>
+        <v>0.86008101851851804</v>
       </c>
       <c r="C51">
         <v>140</v>
@@ -5226,12 +4622,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
-        <v>0.00543981481481481</v>
+        <v>5.4398148148148097E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.860196759259259</v>
+        <v>0.86019675925925898</v>
       </c>
       <c r="C52">
         <v>142</v>
@@ -5279,12 +4675,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
-        <v>0.00555555555555556</v>
+        <v>5.5555555555555601E-3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.8603125</v>
+        <v>0.86031250000000004</v>
       </c>
       <c r="C53">
         <v>138</v>
@@ -5332,12 +4728,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:19">
       <c r="A54" s="1">
-        <v>0.0056712962962963</v>
+        <v>5.6712962962963001E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.860428240740741</v>
+        <v>0.86042824074074098</v>
       </c>
       <c r="C54">
         <v>136</v>
@@ -5346,7 +4742,7 @@
         <v>69</v>
       </c>
       <c r="E54">
-        <v>9.45</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="F54">
         <v>5.81</v>
@@ -5385,12 +4781,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
-        <v>0.00578703703703704</v>
+        <v>5.7870370370370402E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.860543981481481</v>
+        <v>0.86054398148148104</v>
       </c>
       <c r="C55">
         <v>142</v>
@@ -5438,12 +4834,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
-        <v>0.00590277777777778</v>
+        <v>5.9027777777777802E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.860659722222222</v>
+        <v>0.86065972222222198</v>
       </c>
       <c r="C56">
         <v>144</v>
@@ -5491,12 +4887,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
-        <v>0.00601851851851852</v>
+        <v>6.0185185185185203E-3</v>
       </c>
       <c r="B57" s="1">
-        <v>0.860775462962963</v>
+        <v>0.86077546296296303</v>
       </c>
       <c r="C57">
         <v>144</v>
@@ -5544,12 +4940,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:19">
       <c r="A58" s="1">
-        <v>0.00613425925925926</v>
+        <v>6.1342592592592603E-3</v>
       </c>
       <c r="B58" s="1">
-        <v>0.860891203703704</v>
+        <v>0.86089120370370398</v>
       </c>
       <c r="C58">
         <v>145</v>
@@ -5599,10 +4995,10 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="1">
-        <v>0.00625</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="B59" s="1">
-        <v>0.861006944444444</v>
+        <v>0.86100694444444403</v>
       </c>
       <c r="C59">
         <v>144</v>
@@ -5611,7 +5007,7 @@
         <v>70</v>
       </c>
       <c r="E59">
-        <v>10.22</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="F59">
         <v>6.28</v>
@@ -5653,12 +5049,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:19">
       <c r="A60" s="1">
-        <v>0.00636574074074074</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="B60" s="1">
-        <v>0.861122685185185</v>
+        <v>0.86112268518518498</v>
       </c>
       <c r="C60">
         <v>142</v>
@@ -5667,7 +5063,7 @@
         <v>71</v>
       </c>
       <c r="E60">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F60">
         <v>6.27</v>
@@ -5706,12 +5102,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:19">
       <c r="A61" s="1">
-        <v>0.00648148148148148</v>
+        <v>6.4814814814814804E-3</v>
       </c>
       <c r="B61" s="1">
-        <v>0.861238425925926</v>
+        <v>0.86123842592592603</v>
       </c>
       <c r="C61">
         <v>154</v>
@@ -5759,12 +5155,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:19">
       <c r="A62" s="1">
-        <v>0.00659722222222222</v>
+        <v>6.5972222222222196E-3</v>
       </c>
       <c r="B62" s="1">
-        <v>0.861354166666667</v>
+        <v>0.86135416666666698</v>
       </c>
       <c r="C62">
         <v>133</v>
@@ -5812,12 +5208,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:19">
       <c r="A63" s="1">
-        <v>0.00671296296296296</v>
+        <v>6.7129629629629596E-3</v>
       </c>
       <c r="B63" s="1">
-        <v>0.861469907407407</v>
+        <v>0.86146990740740703</v>
       </c>
       <c r="C63">
         <v>148</v>
@@ -5865,12 +5261,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:19">
       <c r="A64" s="1">
-        <v>0.0068287037037037</v>
+        <v>6.8287037037036997E-3</v>
       </c>
       <c r="B64" s="1">
-        <v>0.861585648148148</v>
+        <v>0.86158564814814798</v>
       </c>
       <c r="C64">
         <v>150</v>
@@ -5920,10 +5316,10 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="1">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="B65" s="1">
-        <v>0.861701388888889</v>
+        <v>0.86170138888888903</v>
       </c>
       <c r="C65">
         <v>146</v>
@@ -5974,12 +5370,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:19">
       <c r="A66" s="1">
-        <v>0.00706018518518518</v>
+        <v>7.0601851851851798E-3</v>
       </c>
       <c r="B66" s="1">
-        <v>0.86181712962963</v>
+        <v>0.86181712962962997</v>
       </c>
       <c r="C66">
         <v>139</v>
@@ -6027,12 +5423,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:19">
       <c r="A67" s="1">
-        <v>0.00717592592592593</v>
+        <v>7.1759259259259302E-3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.86193287037037</v>
+        <v>0.86193287037037003</v>
       </c>
       <c r="C67">
         <v>145</v>
@@ -6080,12 +5476,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:19">
       <c r="A68" s="1">
-        <v>0.00729166666666667</v>
+        <v>7.2916666666666703E-3</v>
       </c>
       <c r="B68" s="1">
-        <v>0.862048611111111</v>
+        <v>0.86204861111111097</v>
       </c>
       <c r="C68">
         <v>147</v>
@@ -6133,12 +5529,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:19">
       <c r="A69" s="1">
-        <v>0.00740740740740741</v>
+        <v>7.4074074074074103E-3</v>
       </c>
       <c r="B69" s="1">
-        <v>0.862164351851852</v>
+        <v>0.86216435185185203</v>
       </c>
       <c r="C69">
         <v>135</v>
@@ -6186,12 +5582,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:19">
       <c r="A70" s="1">
-        <v>0.00752314814814815</v>
+        <v>7.5231481481481503E-3</v>
       </c>
       <c r="B70" s="1">
-        <v>0.862280092592593</v>
+        <v>0.86228009259259297</v>
       </c>
       <c r="C70">
         <v>136</v>
@@ -6239,12 +5635,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:19">
       <c r="A71" s="1">
-        <v>0.00763888888888889</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="B71" s="1">
-        <v>0.862395833333333</v>
+        <v>0.86239583333333303</v>
       </c>
       <c r="C71">
         <v>131</v>
@@ -6292,12 +5688,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:19">
       <c r="A72" s="1">
-        <v>0.00775462962962963</v>
+        <v>7.7546296296296304E-3</v>
       </c>
       <c r="B72" s="1">
-        <v>0.862511574074074</v>
+        <v>0.86251157407407397</v>
       </c>
       <c r="C72">
         <v>135</v>
@@ -6306,7 +5702,7 @@
         <v>74</v>
       </c>
       <c r="E72">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F72">
         <v>6.27</v>
@@ -6345,12 +5741,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:19">
       <c r="A73" s="1">
-        <v>0.00787037037037037</v>
+        <v>7.8703703703703696E-3</v>
       </c>
       <c r="B73" s="1">
-        <v>0.862627314814815</v>
+        <v>0.86262731481481503</v>
       </c>
       <c r="C73">
         <v>141</v>
@@ -6398,12 +5794,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:19">
       <c r="A74" s="1">
-        <v>0.00798611111111111</v>
+        <v>7.9861111111111105E-3</v>
       </c>
       <c r="B74" s="1">
-        <v>0.862743055555556</v>
+        <v>0.86274305555555597</v>
       </c>
       <c r="C74">
         <v>129</v>
@@ -6451,12 +5847,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:19">
       <c r="A75" s="1">
-        <v>0.00810185185185185</v>
+        <v>8.1018518518518497E-3</v>
       </c>
       <c r="B75" s="1">
-        <v>0.862858796296296</v>
+        <v>0.86285879629629603</v>
       </c>
       <c r="C75">
         <v>131</v>
@@ -6465,7 +5861,7 @@
         <v>72</v>
       </c>
       <c r="E75">
-        <v>9.62</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="F75">
         <v>5.91</v>
@@ -6504,12 +5900,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:19">
       <c r="A76" s="1">
-        <v>0.00821759259259259</v>
+        <v>8.2175925925925906E-3</v>
       </c>
       <c r="B76" s="1">
-        <v>0.862974537037037</v>
+        <v>0.86297453703703697</v>
       </c>
       <c r="C76">
         <v>135</v>
@@ -6557,12 +5953,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:19">
       <c r="A77" s="1">
-        <v>0.00833333333333333</v>
+        <v>8.3333333333333297E-3</v>
       </c>
       <c r="B77" s="1">
-        <v>0.863090277777778</v>
+        <v>0.86309027777777803</v>
       </c>
       <c r="C77">
         <v>134</v>
@@ -6610,12 +6006,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:19">
       <c r="A78" s="1">
-        <v>0.00844907407407407</v>
+        <v>8.4490740740740707E-3</v>
       </c>
       <c r="B78" s="1">
-        <v>0.863206018518519</v>
+        <v>0.86320601851851897</v>
       </c>
       <c r="C78">
         <v>143</v>
@@ -6665,10 +6061,10 @@
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="1">
-        <v>0.00856481481481482</v>
+        <v>8.5648148148148202E-3</v>
       </c>
       <c r="B79" s="1">
-        <v>0.863321759259259</v>
+        <v>0.86332175925925903</v>
       </c>
       <c r="C79">
         <v>136</v>
@@ -6719,12 +6115,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:19">
       <c r="A80" s="1">
-        <v>0.00868055555555556</v>
+        <v>8.6805555555555594E-3</v>
       </c>
       <c r="B80" s="1">
-        <v>0.8634375</v>
+        <v>0.86343749999999997</v>
       </c>
       <c r="C80">
         <v>131</v>
@@ -6772,12 +6168,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:35">
       <c r="A81" s="1">
-        <v>0.0087962962962963</v>
+        <v>8.7962962962963003E-3</v>
       </c>
       <c r="B81" s="1">
-        <v>0.863553240740741</v>
+        <v>0.86355324074074102</v>
       </c>
       <c r="C81">
         <v>136</v>
@@ -6825,12 +6221,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:35">
       <c r="A82" s="1">
-        <v>0.00891203703703704</v>
+        <v>8.9120370370370395E-3</v>
       </c>
       <c r="B82" s="1">
-        <v>0.863668981481482</v>
+        <v>0.86366898148148197</v>
       </c>
       <c r="C82">
         <v>146</v>
@@ -6881,12 +6277,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:35">
       <c r="A83" s="1">
-        <v>0.00902777777777778</v>
+        <v>9.0277777777777804E-3</v>
       </c>
       <c r="B83" s="1">
-        <v>0.863784722222222</v>
+        <v>0.86378472222222202</v>
       </c>
       <c r="C83">
         <v>141</v>
@@ -6934,12 +6330,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:35">
       <c r="A84" s="1">
-        <v>0.00914351851851852</v>
+        <v>9.1435185185185196E-3</v>
       </c>
       <c r="B84" s="1">
-        <v>0.863900462962963</v>
+        <v>0.86390046296296297</v>
       </c>
       <c r="C84">
         <v>147</v>
@@ -6987,12 +6383,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:35">
       <c r="A85" s="1">
-        <v>0.00925925925925926</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="B85" s="1">
-        <v>0.864016203703704</v>
+        <v>0.86401620370370402</v>
       </c>
       <c r="C85">
         <v>126</v>
@@ -7040,12 +6436,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:35">
       <c r="A86" s="1">
-        <v>0.009375</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="B86" s="1">
-        <v>0.864131944444444</v>
+        <v>0.86413194444444397</v>
       </c>
       <c r="C86">
         <v>152</v>
@@ -7093,12 +6489,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:35">
       <c r="A87" s="1">
-        <v>0.00949074074074074</v>
+        <v>9.4907407407407406E-3</v>
       </c>
       <c r="B87" s="1">
-        <v>0.864247685185185</v>
+        <v>0.86424768518518502</v>
       </c>
       <c r="C87">
         <v>139</v>
@@ -7146,12 +6542,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:35">
       <c r="A88" s="1">
-        <v>0.00960648148148148</v>
+        <v>9.6064814814814797E-3</v>
       </c>
       <c r="B88" s="1">
-        <v>0.864363425925926</v>
+        <v>0.86436342592592597</v>
       </c>
       <c r="C88">
         <v>127</v>
@@ -7160,7 +6556,7 @@
         <v>74</v>
       </c>
       <c r="E88">
-        <v>9.55</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="F88">
         <v>5.87</v>
@@ -7202,12 +6598,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:35">
       <c r="A89" s="1">
-        <v>0.00972222222222222</v>
+        <v>9.7222222222222206E-3</v>
       </c>
       <c r="B89" s="1">
-        <v>0.864479166666667</v>
+        <v>0.86447916666666702</v>
       </c>
       <c r="C89">
         <v>137</v>
@@ -7216,7 +6612,7 @@
         <v>70</v>
       </c>
       <c r="E89">
-        <v>9.71</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="F89">
         <v>5.97</v>
@@ -7255,12 +6651,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:35">
       <c r="A90" s="1">
-        <v>0.00983796296296296</v>
+        <v>9.8379629629629598E-3</v>
       </c>
       <c r="B90" s="1">
-        <v>0.864594907407407</v>
+        <v>0.86459490740740697</v>
       </c>
       <c r="C90">
         <v>139</v>
@@ -7269,7 +6665,7 @@
         <v>70</v>
       </c>
       <c r="E90">
-        <v>9.88</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="F90">
         <v>6.07</v>
@@ -7308,12 +6704,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:35">
       <c r="A91" s="1">
-        <v>0.0099537037037037</v>
+        <v>9.9537037037037007E-3</v>
       </c>
       <c r="B91" s="1">
-        <v>0.864710648148148</v>
+        <v>0.86471064814814802</v>
       </c>
       <c r="C91">
         <v>138</v>
@@ -7322,7 +6718,7 @@
         <v>66</v>
       </c>
       <c r="E91">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F91">
         <v>5.72</v>
@@ -7363,10 +6759,10 @@
     </row>
     <row r="92" spans="1:35">
       <c r="A92" s="1">
-        <v>0.0100694444444444</v>
+        <v>1.00694444444444E-2</v>
       </c>
       <c r="B92" s="1">
-        <v>0.864826388888889</v>
+        <v>0.86482638888888896</v>
       </c>
       <c r="C92">
         <v>135</v>
@@ -7426,11 +6822,11 @@
       </c>
       <c r="W92">
         <f t="shared" si="1"/>
-        <v>9.655</v>
+        <v>9.6550000000000011</v>
       </c>
       <c r="X92">
         <f t="shared" si="1"/>
-        <v>5.935</v>
+        <v>5.9349999999999996</v>
       </c>
       <c r="Y92">
         <f t="shared" si="1"/>
@@ -7466,7 +6862,7 @@
       </c>
       <c r="AG92">
         <f t="shared" si="1"/>
-        <v>6.2425</v>
+        <v>6.2424999999999997</v>
       </c>
       <c r="AH92">
         <f t="shared" si="1"/>
@@ -7477,12 +6873,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:35">
       <c r="A93" s="1">
-        <v>0.0101851851851852</v>
+        <v>1.01851851851852E-2</v>
       </c>
       <c r="B93" s="1">
-        <v>0.86494212962963</v>
+        <v>0.86494212962963002</v>
       </c>
       <c r="C93">
         <v>145</v>
@@ -7530,12 +6926,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:35">
       <c r="A94" s="1">
-        <v>0.0103009259259259</v>
+        <v>1.0300925925925899E-2</v>
       </c>
       <c r="B94" s="1">
-        <v>0.86505787037037</v>
+        <v>0.86505787037036996</v>
       </c>
       <c r="C94">
         <v>157</v>
@@ -7585,10 +6981,10 @@
     </row>
     <row r="95" spans="1:35">
       <c r="A95" s="1">
-        <v>0.0104166666666667</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="B95" s="1">
-        <v>0.865173611111111</v>
+        <v>0.86517361111111102</v>
       </c>
       <c r="C95">
         <v>140</v>
@@ -7600,7 +6996,7 @@
         <v>7.82</v>
       </c>
       <c r="F95">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="G95">
         <v>53</v>
@@ -7627,7 +7023,7 @@
         <v>1311</v>
       </c>
       <c r="O95">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="P95">
         <v>20</v>
@@ -7648,7 +7044,7 @@
       </c>
       <c r="W95">
         <f t="shared" ref="W95" si="3">AVERAGE(E92:E95)</f>
-        <v>9.6125</v>
+        <v>9.6125000000000007</v>
       </c>
       <c r="X95">
         <f t="shared" ref="X95" si="4">AVERAGE(F92:F95)</f>
@@ -7688,7 +7084,7 @@
       </c>
       <c r="AG95">
         <f t="shared" ref="AG95" si="13">AVERAGE(O92:O95)</f>
-        <v>6.215</v>
+        <v>6.2149999999999999</v>
       </c>
       <c r="AH95">
         <f t="shared" ref="AH95" si="14">AVERAGE(P92:P95)</f>
@@ -7699,12 +7095,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:35">
       <c r="A96" s="1">
-        <v>0.0105324074074074</v>
+        <v>1.05324074074074E-2</v>
       </c>
       <c r="B96" s="1">
-        <v>0.865289351851852</v>
+        <v>0.86528935185185196</v>
       </c>
       <c r="C96">
         <v>139</v>
@@ -7713,7 +7109,7 @@
         <v>58</v>
       </c>
       <c r="E96">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F96">
         <v>4.99</v>
@@ -7752,12 +7148,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:35">
       <c r="A97" s="1">
-        <v>0.0106481481481481</v>
+        <v>1.0648148148148099E-2</v>
       </c>
       <c r="B97" s="1">
-        <v>0.865405092592593</v>
+        <v>0.86540509259259302</v>
       </c>
       <c r="C97">
         <v>146</v>
@@ -7805,12 +7201,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:35">
       <c r="A98" s="1">
-        <v>0.0107638888888889</v>
+        <v>1.0763888888888899E-2</v>
       </c>
       <c r="B98" s="1">
-        <v>0.865520833333333</v>
+        <v>0.86552083333333296</v>
       </c>
       <c r="C98">
         <v>141</v>
@@ -7858,12 +7254,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:35">
       <c r="A99" s="1">
-        <v>0.0108796296296296</v>
+        <v>1.08796296296296E-2</v>
       </c>
       <c r="B99" s="1">
-        <v>0.865636574074074</v>
+        <v>0.86563657407407402</v>
       </c>
       <c r="C99">
         <v>155</v>
@@ -7911,12 +7307,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:35">
       <c r="A100" s="1">
-        <v>0.0109953703703704</v>
+        <v>1.09953703703704E-2</v>
       </c>
       <c r="B100" s="1">
-        <v>0.865752314814815</v>
+        <v>0.86575231481481496</v>
       </c>
       <c r="C100">
         <v>138</v>
@@ -7966,10 +7362,10 @@
     </row>
     <row r="101" spans="1:35">
       <c r="A101" s="1">
-        <v>0.0111111111111111</v>
+        <v>1.1111111111111099E-2</v>
       </c>
       <c r="B101" s="1">
-        <v>0.865868055555556</v>
+        <v>0.86586805555555602</v>
       </c>
       <c r="C101">
         <v>146</v>
@@ -8021,31 +7417,31 @@
       </c>
       <c r="U101" s="2">
         <f>AVERAGE(C95:C101)</f>
-        <v>143.571428571429</v>
+        <v>143.57142857142858</v>
       </c>
       <c r="V101" s="2">
         <f t="shared" ref="V101:AI101" si="16">AVERAGE(D95:D101)</f>
-        <v>61.2857142857143</v>
+        <v>61.285714285714285</v>
       </c>
       <c r="W101" s="2">
         <f t="shared" si="16"/>
-        <v>8.90428571428571</v>
+        <v>8.9042857142857148</v>
       </c>
       <c r="X101" s="2">
         <f t="shared" si="16"/>
-        <v>5.47428571428571</v>
+        <v>5.4742857142857142</v>
       </c>
       <c r="Y101" s="2">
         <f t="shared" si="16"/>
-        <v>58.7142857142857</v>
+        <v>58.714285714285715</v>
       </c>
       <c r="Z101" s="2">
         <f t="shared" si="16"/>
-        <v>157.285714285714</v>
+        <v>157.28571428571428</v>
       </c>
       <c r="AA101" s="2">
         <f t="shared" si="16"/>
-        <v>83.8571428571429</v>
+        <v>83.857142857142861</v>
       </c>
       <c r="AB101" s="2">
         <f t="shared" si="16"/>
@@ -8057,35 +7453,35 @@
       </c>
       <c r="AD101" s="2">
         <f t="shared" si="16"/>
-        <v>104.142857142857</v>
+        <v>104.14285714285714</v>
       </c>
       <c r="AE101" s="2">
         <f t="shared" si="16"/>
-        <v>724.285714285714</v>
+        <v>724.28571428571433</v>
       </c>
       <c r="AF101" s="2">
         <f t="shared" si="16"/>
-        <v>1177.85714285714</v>
+        <v>1177.8571428571429</v>
       </c>
       <c r="AG101" s="2">
         <f t="shared" si="16"/>
-        <v>5.75857142857143</v>
+        <v>5.7585714285714289</v>
       </c>
       <c r="AH101" s="2">
         <f t="shared" si="16"/>
-        <v>19.8571428571429</v>
+        <v>19.857142857142858</v>
       </c>
       <c r="AI101" s="2">
         <f t="shared" si="16"/>
-        <v>81.1428571428571</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
+        <v>81.142857142857139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35">
       <c r="A102" s="1">
-        <v>0.0112268518518519</v>
+        <v>1.1226851851851899E-2</v>
       </c>
       <c r="B102" s="1">
-        <v>0.865983796296296</v>
+        <v>0.86598379629629596</v>
       </c>
       <c r="C102">
         <v>144</v>
@@ -8133,12 +7529,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:35">
       <c r="A103" s="1">
-        <v>0.0113425925925926</v>
+        <v>1.13425925925926E-2</v>
       </c>
       <c r="B103" s="1">
-        <v>0.866099537037037</v>
+        <v>0.86609953703703701</v>
       </c>
       <c r="C103">
         <v>139</v>
@@ -8189,12 +7585,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:35">
       <c r="A104" s="1">
-        <v>0.0114583333333333</v>
+        <v>1.14583333333333E-2</v>
       </c>
       <c r="B104" s="1">
-        <v>0.866215277777778</v>
+        <v>0.86621527777777796</v>
       </c>
       <c r="C104">
         <v>137</v>
@@ -8242,12 +7638,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:35">
       <c r="A105" s="1">
-        <v>0.0115740740740741</v>
+        <v>1.1574074074074099E-2</v>
       </c>
       <c r="B105" s="1">
-        <v>0.866331018518518</v>
+        <v>0.86633101851851801</v>
       </c>
       <c r="C105">
         <v>155</v>
@@ -8295,46 +7691,37 @@
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:35">
       <c r="A107" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>